--- a/nasatlx.xlsx
+++ b/nasatlx.xlsx
@@ -98,7 +98,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
